--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="68">
   <si>
     <t>What is 1</t>
   </si>
@@ -96,9 +96,6 @@
     <t>COL14</t>
   </si>
   <si>
-    <t>QUEST</t>
-  </si>
-  <si>
     <t>COL15</t>
   </si>
   <si>
@@ -211,6 +208,18 @@
   </si>
   <si>
     <t>FSTNAME</t>
+  </si>
+  <si>
+    <t>QSLNO</t>
+  </si>
+  <si>
+    <t>USLNO</t>
+  </si>
+  <si>
+    <t>RESULTMASTER</t>
+  </si>
+  <si>
+    <t>RSLNO</t>
   </si>
 </sst>
 </file>
@@ -275,9 +284,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -292,6 +298,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -655,40 +664,40 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="3" spans="2:7">
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
     </row>
     <row r="4" spans="2:7">
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="4"/>
-      <c r="C5" s="5">
+      <c r="B5" s="3"/>
+      <c r="C5" s="4">
         <v>1</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>2</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <v>3</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="4">
         <v>4</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="4">
         <v>5</v>
       </c>
     </row>
@@ -703,18 +712,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X6"/>
+  <dimension ref="A1:Y8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6:I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.5703125" bestFit="1" customWidth="1"/>
@@ -722,270 +730,291 @@
     <col min="14" max="14" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="7" customFormat="1" ht="30">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:25" s="6" customFormat="1">
+      <c r="A1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="O1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="P1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="R1" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="S1" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="T1" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="U1" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25">
+      <c r="A2" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N2" t="s">
+        <v>9</v>
+      </c>
+      <c r="O2" t="s">
+        <v>39</v>
+      </c>
+      <c r="P2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q2" t="s">
         <v>27</v>
       </c>
-      <c r="Q1" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="R1" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="S1" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="T1" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="U1" s="9" t="s">
+      <c r="R2" t="s">
+        <v>28</v>
+      </c>
+      <c r="S2" t="s">
+        <v>29</v>
+      </c>
+      <c r="T2" t="s">
+        <v>30</v>
+      </c>
+      <c r="U2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="2" spans="1:24">
-      <c r="A2" s="7" t="s">
+      <c r="V2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25">
+      <c r="B3" s="7"/>
+    </row>
+    <row r="4" spans="1:25">
+      <c r="A4" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B4" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" t="s">
+        <v>51</v>
+      </c>
+      <c r="I4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J4" t="s">
+        <v>60</v>
+      </c>
+      <c r="K4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" t="s">
+        <v>29</v>
+      </c>
+      <c r="N4" t="s">
+        <v>30</v>
+      </c>
+      <c r="O4" t="s">
+        <v>36</v>
+      </c>
+      <c r="P4" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>44</v>
+      </c>
+      <c r="R4" t="s">
+        <v>53</v>
+      </c>
+      <c r="S4" t="s">
+        <v>54</v>
+      </c>
+      <c r="T4" t="s">
+        <v>55</v>
+      </c>
+      <c r="U4" t="s">
+        <v>56</v>
+      </c>
+      <c r="V4" t="s">
+        <v>57</v>
+      </c>
+      <c r="W4" s="7"/>
+      <c r="X4" s="7"/>
+    </row>
+    <row r="5" spans="1:25">
+      <c r="B5" s="7"/>
+    </row>
+    <row r="6" spans="1:25">
+      <c r="A6" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" t="s">
+        <v>60</v>
+      </c>
+      <c r="I6" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6" t="s">
+        <v>28</v>
+      </c>
+      <c r="L6" t="s">
+        <v>29</v>
+      </c>
+      <c r="M6" t="s">
+        <v>30</v>
+      </c>
+      <c r="N6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O6" t="s">
+        <v>43</v>
+      </c>
+      <c r="P6" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>53</v>
+      </c>
+      <c r="R6" t="s">
+        <v>54</v>
+      </c>
+      <c r="S6" t="s">
+        <v>55</v>
+      </c>
+      <c r="T6" t="s">
+        <v>56</v>
+      </c>
+      <c r="U6" t="s">
+        <v>57</v>
+      </c>
+      <c r="V6" t="s">
         <v>59</v>
       </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2" t="s">
-        <v>39</v>
-      </c>
-      <c r="L2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M2" t="s">
-        <v>9</v>
-      </c>
-      <c r="N2" t="s">
-        <v>40</v>
-      </c>
-      <c r="O2" t="s">
-        <v>41</v>
-      </c>
-      <c r="P2" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>29</v>
-      </c>
-      <c r="R2" t="s">
-        <v>30</v>
-      </c>
-      <c r="S2" t="s">
-        <v>31</v>
-      </c>
-      <c r="T2" t="s">
-        <v>37</v>
-      </c>
-      <c r="U2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24">
-      <c r="A4" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F4" t="s">
-        <v>51</v>
-      </c>
-      <c r="G4" t="s">
-        <v>52</v>
-      </c>
-      <c r="H4" t="s">
-        <v>53</v>
-      </c>
-      <c r="I4" t="s">
-        <v>61</v>
-      </c>
-      <c r="J4" t="s">
-        <v>28</v>
-      </c>
-      <c r="K4" t="s">
-        <v>29</v>
-      </c>
-      <c r="L4" t="s">
-        <v>30</v>
-      </c>
-      <c r="M4" t="s">
-        <v>31</v>
-      </c>
-      <c r="N4" t="s">
-        <v>37</v>
-      </c>
-      <c r="O4" t="s">
-        <v>44</v>
-      </c>
-      <c r="P4" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>54</v>
-      </c>
-      <c r="R4" t="s">
-        <v>55</v>
-      </c>
-      <c r="S4" t="s">
-        <v>56</v>
-      </c>
-      <c r="T4" t="s">
-        <v>57</v>
-      </c>
-      <c r="U4" t="s">
-        <v>58</v>
-      </c>
-      <c r="V4" s="8"/>
-      <c r="W4" s="8"/>
-    </row>
-    <row r="6" spans="1:24">
-      <c r="A6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" t="s">
-        <v>61</v>
-      </c>
-      <c r="H6" t="s">
-        <v>41</v>
-      </c>
-      <c r="I6" t="s">
-        <v>28</v>
-      </c>
-      <c r="J6" t="s">
-        <v>29</v>
-      </c>
-      <c r="K6" t="s">
-        <v>30</v>
-      </c>
-      <c r="L6" t="s">
-        <v>31</v>
-      </c>
-      <c r="M6" t="s">
-        <v>37</v>
-      </c>
-      <c r="N6" t="s">
-        <v>44</v>
-      </c>
-      <c r="O6" t="s">
-        <v>45</v>
-      </c>
-      <c r="P6" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>55</v>
-      </c>
-      <c r="R6" t="s">
-        <v>56</v>
-      </c>
-      <c r="S6" t="s">
-        <v>57</v>
-      </c>
-      <c r="T6" t="s">
-        <v>58</v>
-      </c>
-      <c r="U6" t="s">
-        <v>60</v>
-      </c>
-      <c r="V6" s="8"/>
-      <c r="W6" s="8"/>
-      <c r="X6" s="8"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+    </row>
+    <row r="7" spans="1:25">
+      <c r="B7" s="7"/>
+    </row>
+    <row r="8" spans="1:25">
+      <c r="B8" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1009,7 +1038,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1017,7 +1046,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:2">
